--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24geschichte/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FBA3DF-1D54-A44F-B247-485762868089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB696FCA-54B2-F842-B504-D89F4DFFD763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
   <si>
     <t>blank</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>decision.jpg</t>
+  </si>
+  <si>
+    <t>Erklären können, welcher Zusammenhang zwischen Edward Tylors Theorie des Animismus und den Debatten und dem Wissensstand seiner Zeit besteht.</t>
   </si>
 </sst>
 </file>
@@ -738,8 +741,8 @@
   </sheetPr>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -828,26 +831,26 @@
         <v>57</v>
       </c>
       <c r="H2" t="str">
-        <f>B2 &amp; ". " &amp; IF(ISBLANK(E2),"",E2 &amp; ": ") &amp; F2</f>
+        <f t="shared" ref="H2:H15" si="1">B2 &amp; ". " &amp; IF(ISBLANK(E2),"",E2 &amp; ": ") &amp; F2</f>
         <v>1. Einführung: Vorstellung</v>
       </c>
       <c r="I2" s="3">
-        <f>B2</f>
+        <f t="shared" ref="I2:I15" si="2">B2</f>
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>29</v>
       </c>
       <c r="K2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2 &amp; ". " &amp; F2,".",""),"&amp;","")," ","-"),"--","-")</f>
+        <f t="shared" ref="K2:K15" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2 &amp; ". " &amp; F2,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>1-Vorstellung</v>
       </c>
       <c r="N2" t="str">
-        <f>"["&amp;B2&amp;"]"</f>
+        <f t="shared" ref="N2:N15" si="4">"["&amp;B2&amp;"]"</f>
         <v>[1]</v>
       </c>
       <c r="O2" t="str">
-        <f>"---
+        <f t="shared" ref="O2:O15" si="5">"---
 layout: post
 " &amp; B$1 &amp; ": " &amp; B2 &amp; "
 " &amp; N$1 &amp; ": " &amp; N2 &amp; "
@@ -882,34 +885,32 @@
         <v>66</v>
       </c>
       <c r="H3" t="str">
-        <f>B3 &amp; ". " &amp; IF(ISBLANK(E3),"",E3 &amp; ": ") &amp; F3</f>
+        <f t="shared" si="1"/>
         <v>2. Ursprünge: Edward Tylor</v>
       </c>
       <c r="I3" s="3">
-        <f>B3</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>30</v>
       </c>
       <c r="K3" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B3 &amp; ". " &amp; F3,".",""),"&amp;","")," ","-"),"--","-")</f>
+        <f t="shared" si="3"/>
         <v>2-Edward-Tylor</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>41</v>
       </c>
+      <c r="M3" t="s">
+        <v>79</v>
+      </c>
       <c r="N3" t="str">
-        <f>"["&amp;B3&amp;"]"</f>
+        <f t="shared" si="4"/>
         <v>[2]</v>
       </c>
       <c r="O3" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B3 &amp; "
-" &amp; N$1 &amp; ": " &amp; N3 &amp; "
-level: overview
----"</f>
+        <f t="shared" si="5"/>
         <v>---
 layout: post
 session: 2
@@ -939,18 +940,18 @@
         <v>67</v>
       </c>
       <c r="H4" t="str">
-        <f>B4 &amp; ". " &amp; IF(ISBLANK(E4),"",E4 &amp; ": ") &amp; F4</f>
+        <f t="shared" si="1"/>
         <v>3. Ursprünge: James Frazer</v>
       </c>
       <c r="I4" s="3">
-        <f>B4</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
       </c>
       <c r="K4" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B4 &amp; ". " &amp; F4,".",""),"&amp;","")," ","-"),"--","-")</f>
+        <f t="shared" si="3"/>
         <v>3-James-Frazer</v>
       </c>
       <c r="L4" s="11" t="s">
@@ -960,16 +961,11 @@
         <v>49</v>
       </c>
       <c r="N4" t="str">
-        <f>"["&amp;B4&amp;"]"</f>
+        <f t="shared" si="4"/>
         <v>[3]</v>
       </c>
       <c r="O4" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B4 &amp; "
-" &amp; N$1 &amp; ": " &amp; N4 &amp; "
-level: overview
----"</f>
+        <f t="shared" si="5"/>
         <v>---
 layout: post
 session: 3
@@ -999,34 +995,29 @@
         <v>68</v>
       </c>
       <c r="H5" t="str">
-        <f>B5 &amp; ". " &amp; IF(ISBLANK(E5),"",E5 &amp; ": ") &amp; F5</f>
+        <f t="shared" si="1"/>
         <v>4. Ursprünge: Aby Warburg</v>
       </c>
       <c r="I5" s="3">
-        <f>B5</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J5" t="s">
         <v>45</v>
       </c>
       <c r="K5" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B5 &amp; ". " &amp; F5,".",""),"&amp;","")," ","-"),"--","-")</f>
+        <f t="shared" si="3"/>
         <v>4-Aby-Warburg</v>
       </c>
       <c r="L5" s="13" t="s">
         <v>42</v>
       </c>
       <c r="N5" t="str">
-        <f>"["&amp;B5&amp;"]"</f>
+        <f t="shared" si="4"/>
         <v>[4]</v>
       </c>
       <c r="O5" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B5 &amp; "
-" &amp; N$1 &amp; ": " &amp; N5 &amp; "
-level: overview
----"</f>
+        <f t="shared" si="5"/>
         <v>---
 layout: post
 session: 4
@@ -1056,18 +1047,18 @@
         <v>69</v>
       </c>
       <c r="H6" t="str">
-        <f>B6 &amp; ". " &amp; IF(ISBLANK(E6),"",E6 &amp; ": ") &amp; F6</f>
+        <f t="shared" si="1"/>
         <v>5. Paradigmen (Weltreligionen): Parlament der Weltreligionen</v>
       </c>
       <c r="I6" s="3">
-        <f>B6</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J6" t="s">
         <v>32</v>
       </c>
       <c r="K6" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B6 &amp; ". " &amp; F6,".",""),"&amp;","")," ","-"),"--","-")</f>
+        <f t="shared" si="3"/>
         <v>5-Parlament-der-Weltreligionen</v>
       </c>
       <c r="L6" s="12" t="s">
@@ -1077,16 +1068,11 @@
         <v>50</v>
       </c>
       <c r="N6" t="str">
-        <f>"["&amp;B6&amp;"]"</f>
+        <f t="shared" si="4"/>
         <v>[5]</v>
       </c>
       <c r="O6" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B6 &amp; "
-" &amp; N$1 &amp; ": " &amp; N6 &amp; "
-level: overview
----"</f>
+        <f t="shared" si="5"/>
         <v>---
 layout: post
 session: 5
@@ -1116,34 +1102,29 @@
         <v>59</v>
       </c>
       <c r="H7" t="str">
-        <f>B7 &amp; ". " &amp; IF(ISBLANK(E7),"",E7 &amp; ": ") &amp; F7</f>
+        <f t="shared" si="1"/>
         <v>6. Paradigmen (Phänomenologie): Rudolf Otto</v>
       </c>
       <c r="I7" s="3">
-        <f>B7</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="J7" t="s">
         <v>48</v>
       </c>
       <c r="K7" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B7 &amp; ". " &amp; F7,".",""),"&amp;","")," ","-"),"--","-")</f>
+        <f t="shared" si="3"/>
         <v>6-Rudolf-Otto</v>
       </c>
       <c r="L7" s="13" t="s">
         <v>43</v>
       </c>
       <c r="N7" t="str">
-        <f>"["&amp;B7&amp;"]"</f>
+        <f t="shared" si="4"/>
         <v>[6]</v>
       </c>
       <c r="O7" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B7 &amp; "
-" &amp; N$1 &amp; ": " &amp; N7 &amp; "
-level: overview
----"</f>
+        <f t="shared" si="5"/>
         <v>---
 layout: post
 session: 6
@@ -1173,18 +1154,18 @@
         <v>60</v>
       </c>
       <c r="H8" t="str">
-        <f>B8 &amp; ". " &amp; IF(ISBLANK(E8),"",E8 &amp; ": ") &amp; F8</f>
+        <f t="shared" si="1"/>
         <v>7. Paradigmen (Phänomenologie): Mircea Eliade</v>
       </c>
       <c r="I8" s="3">
-        <f>B8</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="J8" t="s">
         <v>33</v>
       </c>
       <c r="K8" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B8 &amp; ". " &amp; F8,".",""),"&amp;","")," ","-"),"--","-")</f>
+        <f t="shared" si="3"/>
         <v>7-Mircea-Eliade</v>
       </c>
       <c r="L8" s="12" t="s">
@@ -1194,16 +1175,11 @@
         <v>51</v>
       </c>
       <c r="N8" t="str">
-        <f>"["&amp;B8&amp;"]"</f>
+        <f t="shared" si="4"/>
         <v>[7]</v>
       </c>
       <c r="O8" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B8 &amp; "
-" &amp; N$1 &amp; ": " &amp; N8 &amp; "
-level: overview
----"</f>
+        <f t="shared" si="5"/>
         <v>---
 layout: post
 session: 7
@@ -1233,18 +1209,18 @@
         <v>70</v>
       </c>
       <c r="H9" t="str">
-        <f>B9 &amp; ". " &amp; IF(ISBLANK(E9),"",E9 &amp; ": ") &amp; F9</f>
+        <f t="shared" si="1"/>
         <v>8. Paradigmen (Strukturfunktionalismus): Mary Douglas</v>
       </c>
       <c r="I9" s="3">
-        <f>B9</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="J9" t="s">
         <v>34</v>
       </c>
       <c r="K9" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9 &amp; ". " &amp; F9,".",""),"&amp;","")," ","-"),"--","-")</f>
+        <f t="shared" si="3"/>
         <v>8-Mary-Douglas</v>
       </c>
       <c r="L9" s="12" t="s">
@@ -1254,16 +1230,11 @@
         <v>52</v>
       </c>
       <c r="N9" t="str">
-        <f>"["&amp;B9&amp;"]"</f>
+        <f t="shared" si="4"/>
         <v>[8]</v>
       </c>
       <c r="O9" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B9 &amp; "
-" &amp; N$1 &amp; ": " &amp; N9 &amp; "
-level: overview
----"</f>
+        <f t="shared" si="5"/>
         <v>---
 layout: post
 session: 8
@@ -1293,32 +1264,27 @@
         <v>64</v>
       </c>
       <c r="H10" t="str">
-        <f>B10 &amp; ". " &amp; IF(ISBLANK(E10),"",E10 &amp; ": ") &amp; F10</f>
+        <f t="shared" si="1"/>
         <v>9. Paradigmen (Strukturfunktionalismus): Victor und Edith Turner</v>
       </c>
       <c r="I10" s="3">
-        <f>B10</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="J10" t="s">
         <v>35</v>
       </c>
       <c r="K10" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10 &amp; ". " &amp; F10,".",""),"&amp;","")," ","-"),"--","-")</f>
+        <f t="shared" si="3"/>
         <v>9-Victor-und-Edith-Turner</v>
       </c>
       <c r="L10" s="8"/>
       <c r="N10" t="str">
-        <f>"["&amp;B10&amp;"]"</f>
+        <f t="shared" si="4"/>
         <v>[9]</v>
       </c>
       <c r="O10" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B10 &amp; "
-" &amp; N$1 &amp; ": " &amp; N10 &amp; "
-level: overview
----"</f>
+        <f t="shared" si="5"/>
         <v>---
 layout: post
 session: 9
@@ -1348,34 +1314,29 @@
         <v>71</v>
       </c>
       <c r="H11" t="str">
-        <f>B11 &amp; ". " &amp; IF(ISBLANK(E11),"",E11 &amp; ": ") &amp; F11</f>
+        <f t="shared" si="1"/>
         <v>10. Paradigmen (Ethnographie): Clifford Geertz</v>
       </c>
       <c r="I11" s="3">
-        <f>B11</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="J11" t="s">
         <v>36</v>
       </c>
       <c r="K11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B11 &amp; ". " &amp; F11,".",""),"&amp;","")," ","-"),"--","-")</f>
+        <f t="shared" si="3"/>
         <v>10-Clifford-Geertz</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>47</v>
       </c>
       <c r="N11" t="str">
-        <f>"["&amp;B11&amp;"]"</f>
+        <f t="shared" si="4"/>
         <v>[10]</v>
       </c>
       <c r="O11" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B11 &amp; "
-" &amp; N$1 &amp; ": " &amp; N11 &amp; "
-level: overview
----"</f>
+        <f t="shared" si="5"/>
         <v>---
 layout: post
 session: 10
@@ -1405,34 +1366,29 @@
         <v>72</v>
       </c>
       <c r="H12" t="str">
-        <f>B12 &amp; ". " &amp; IF(ISBLANK(E12),"",E12 &amp; ": ") &amp; F12</f>
+        <f t="shared" si="1"/>
         <v>11. Entzauberung: Max Weber</v>
       </c>
       <c r="I12" s="3">
-        <f>B12</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="J12" t="s">
         <v>37</v>
       </c>
       <c r="K12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B12 &amp; ". " &amp; F12,".",""),"&amp;","")," ","-"),"--","-")</f>
+        <f t="shared" si="3"/>
         <v>11-Max-Weber</v>
       </c>
       <c r="L12" s="15" t="s">
         <v>53</v>
       </c>
       <c r="N12" t="str">
-        <f>"["&amp;B12&amp;"]"</f>
+        <f t="shared" si="4"/>
         <v>[11]</v>
       </c>
       <c r="O12" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B12 &amp; "
-" &amp; N$1 &amp; ": " &amp; N12 &amp; "
-level: overview
----"</f>
+        <f t="shared" si="5"/>
         <v>---
 layout: post
 session: 11
@@ -1462,34 +1418,29 @@
         <v>73</v>
       </c>
       <c r="H13" t="str">
-        <f>B13 &amp; ". " &amp; IF(ISBLANK(E13),"",E13 &amp; ": ") &amp; F13</f>
+        <f t="shared" si="1"/>
         <v>12. Entzauberung: Pierre Bourdieu</v>
       </c>
       <c r="I13" s="3">
-        <f>B13</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J13" t="s">
         <v>38</v>
       </c>
       <c r="K13" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B13 &amp; ". " &amp; F13,".",""),"&amp;","")," ","-"),"--","-")</f>
+        <f t="shared" si="3"/>
         <v>12-Pierre-Bourdieu</v>
       </c>
       <c r="L13" s="14" t="s">
         <v>46</v>
       </c>
       <c r="N13" t="str">
-        <f>"["&amp;B13&amp;"]"</f>
+        <f t="shared" si="4"/>
         <v>[12]</v>
       </c>
       <c r="O13" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B13 &amp; "
-" &amp; N$1 &amp; ": " &amp; N13 &amp; "
-level: overview
----"</f>
+        <f t="shared" si="5"/>
         <v>---
 layout: post
 session: 12
@@ -1519,31 +1470,26 @@
         <v>74</v>
       </c>
       <c r="H14" t="str">
-        <f>B14 &amp; ". " &amp; IF(ISBLANK(E14),"",E14 &amp; ": ") &amp; F14</f>
+        <f t="shared" si="1"/>
         <v>13. Entzauberung: Jacques Derrida</v>
       </c>
       <c r="I14" s="3">
-        <f>B14</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="J14" t="s">
         <v>77</v>
       </c>
       <c r="K14" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B14 &amp; ". " &amp; F14,".",""),"&amp;","")," ","-"),"--","-")</f>
+        <f t="shared" si="3"/>
         <v>13-Jacques-Derrida</v>
       </c>
       <c r="N14" t="str">
-        <f>"["&amp;B14&amp;"]"</f>
+        <f t="shared" si="4"/>
         <v>[13]</v>
       </c>
       <c r="O14" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B14 &amp; "
-" &amp; N$1 &amp; ": " &amp; N14 &amp; "
-level: overview
----"</f>
+        <f t="shared" si="5"/>
         <v>---
 layout: post
 session: 13
@@ -1573,31 +1519,26 @@
         <v>75</v>
       </c>
       <c r="H15" t="str">
-        <f>B15 &amp; ". " &amp; IF(ISBLANK(E15),"",E15 &amp; ": ") &amp; F15</f>
+        <f t="shared" si="1"/>
         <v>14. Abschluss: Rückblick &amp; Ausblick</v>
       </c>
       <c r="I15" s="3">
-        <f>B15</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="J15" t="s">
         <v>78</v>
       </c>
       <c r="K15" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B15 &amp; ". " &amp; F15,".",""),"&amp;","")," ","-"),"--","-")</f>
+        <f t="shared" si="3"/>
         <v>14-Rückblick-Ausblick</v>
       </c>
       <c r="N15" t="str">
-        <f>"["&amp;B15&amp;"]"</f>
+        <f t="shared" si="4"/>
         <v>[14]</v>
       </c>
       <c r="O15" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B15 &amp; "
-" &amp; N$1 &amp; ": " &amp; N15 &amp; "
-level: overview
----"</f>
+        <f t="shared" si="5"/>
         <v>---
 layout: post
 session: 14

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24geschichte/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB696FCA-54B2-F842-B504-D89F4DFFD763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816F835F-119C-6749-A9F5-FDD914C1AA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10480" yWindow="5200" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
   <si>
     <t>blank</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>Erklären können, welcher Zusammenhang zwischen Edward Tylors Theorie des Animismus und den Debatten und dem Wissensstand seiner Zeit besteht.</t>
+  </si>
+  <si>
+    <t>Erläutern können, wie Warburgs Interesse an symbolischen Bedeutungen dazu geführt hat, so genannte "primitive" Religionen nicht nur als rückständigen Aberglauben zu betrachten.</t>
   </si>
 </sst>
 </file>
@@ -741,8 +744,8 @@
   </sheetPr>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1012,6 +1015,9 @@
       <c r="L5" s="13" t="s">
         <v>42</v>
       </c>
+      <c r="M5" t="s">
+        <v>80</v>
+      </c>
       <c r="N5" t="str">
         <f t="shared" si="4"/>
         <v>[4]</v>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24geschichte/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816F835F-119C-6749-A9F5-FDD914C1AA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0CD770-8404-B04A-A1FC-95C3CAB9C353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10480" yWindow="5200" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,9 +185,6 @@
     <t>Frazers Versuch, alle Religionen auf eine gemeinsame Wurzel zurückzuführen, als andauernd prägend wahrzunehmen.</t>
   </si>
   <si>
-    <t>Der Begriff "Weltreligionen" im europäischen Diskurs des 19. und 20. Jahrhunderts verorten.</t>
-  </si>
-  <si>
     <t>Phänomenologische Ansätze am Beispiel von Eliades Konzeption des „Heiligen und des Profanen“ erkennen und anwenden.</t>
   </si>
   <si>
@@ -276,6 +273,9 @@
   </si>
   <si>
     <t>Erläutern können, wie Warburgs Interesse an symbolischen Bedeutungen dazu geführt hat, so genannte "primitive" Religionen nicht nur als rückständigen Aberglauben zu betrachten.</t>
+  </si>
+  <si>
+    <t>Die Erfindung des Begriffs "Weltreligionen" mit seinen Konnotationen im europäischen Diskurs skizzieren können.</t>
   </si>
 </sst>
 </file>
@@ -745,7 +745,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -828,10 +828,10 @@
         <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H15" si="1">B2 &amp; ". " &amp; IF(ISBLANK(E2),"",E2 &amp; ": ") &amp; F2</f>
@@ -885,7 +885,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="1"/>
@@ -906,7 +906,7 @@
         <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="4"/>
@@ -940,7 +940,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
@@ -995,7 +995,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
@@ -1016,7 +1016,7 @@
         <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="4"/>
@@ -1044,13 +1044,13 @@
         <v>2024-11-21-5.md</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
@@ -1071,7 +1071,7 @@
         <v>39</v>
       </c>
       <c r="M6" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="4"/>
@@ -1099,13 +1099,13 @@
         <v>2024-11-28-6.md</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
@@ -1151,13 +1151,13 @@
         <v>2024-12-05-7.md</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
@@ -1178,7 +1178,7 @@
         <v>40</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="4"/>
@@ -1206,13 +1206,13 @@
         <v>2024-12-12-8.md</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
@@ -1233,7 +1233,7 @@
         <v>44</v>
       </c>
       <c r="M9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="4"/>
@@ -1261,13 +1261,13 @@
         <v>2024-12-19-9.md</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
@@ -1311,13 +1311,13 @@
         <v>2025-01-16-10.md</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
@@ -1369,7 +1369,7 @@
         <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
@@ -1387,7 +1387,7 @@
         <v>11-Max-Weber</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="4"/>
@@ -1421,7 +1421,7 @@
         <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
@@ -1470,10 +1470,10 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
@@ -1484,7 +1484,7 @@
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="3"/>
@@ -1516,13 +1516,13 @@
         <v>2025-02-13-14.md</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
@@ -1533,7 +1533,7 @@
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="3"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24geschichte/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0CD770-8404-B04A-A1FC-95C3CAB9C353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA71300F-2867-0744-B66C-C97A09B2A3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10480" yWindow="5200" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,9 +164,6 @@
     <t>warburgSchlangenritualReisebericht</t>
   </si>
   <si>
-    <t>ottoHeiligeUeberIrrationale1926</t>
-  </si>
-  <si>
     <t>[douglasAbominationsLeviticus2002, douglasGreuelDrittenBuchs1985]</t>
   </si>
   <si>
@@ -276,6 +273,9 @@
   </si>
   <si>
     <t>Die Erfindung des Begriffs "Weltreligionen" mit seinen Konnotationen im europäischen Diskurs skizzieren können.</t>
+  </si>
+  <si>
+    <t>ottoKap141926</t>
   </si>
 </sst>
 </file>
@@ -744,8 +744,8 @@
   </sheetPr>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -828,10 +828,10 @@
         <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H15" si="1">B2 &amp; ". " &amp; IF(ISBLANK(E2),"",E2 &amp; ": ") &amp; F2</f>
@@ -885,7 +885,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="1"/>
@@ -906,7 +906,7 @@
         <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="4"/>
@@ -940,7 +940,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
@@ -961,7 +961,7 @@
         <v>28</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="4"/>
@@ -995,7 +995,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
@@ -1006,7 +1006,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="3"/>
@@ -1016,7 +1016,7 @@
         <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="4"/>
@@ -1044,13 +1044,13 @@
         <v>2024-11-21-5.md</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
@@ -1071,7 +1071,7 @@
         <v>39</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="4"/>
@@ -1099,13 +1099,13 @@
         <v>2024-11-28-6.md</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
@@ -1116,14 +1116,14 @@
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="3"/>
         <v>6-Rudolf-Otto</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="4"/>
@@ -1151,13 +1151,13 @@
         <v>2024-12-05-7.md</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
@@ -1178,7 +1178,7 @@
         <v>40</v>
       </c>
       <c r="M8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="4"/>
@@ -1206,13 +1206,13 @@
         <v>2024-12-12-8.md</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
@@ -1230,10 +1230,10 @@
         <v>8-Mary-Douglas</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="4"/>
@@ -1261,13 +1261,13 @@
         <v>2024-12-19-9.md</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
@@ -1311,13 +1311,13 @@
         <v>2025-01-16-10.md</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
@@ -1335,7 +1335,7 @@
         <v>10-Clifford-Geertz</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="4"/>
@@ -1369,7 +1369,7 @@
         <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
@@ -1387,7 +1387,7 @@
         <v>11-Max-Weber</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="4"/>
@@ -1421,7 +1421,7 @@
         <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
@@ -1439,7 +1439,7 @@
         <v>12-Pierre-Bourdieu</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="4"/>
@@ -1470,10 +1470,10 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
@@ -1484,7 +1484,7 @@
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="3"/>
@@ -1516,13 +1516,13 @@
         <v>2025-02-13-14.md</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
@@ -1533,7 +1533,7 @@
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="3"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24geschichte/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA71300F-2867-0744-B66C-C97A09B2A3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1663687A-C4C3-3345-B542-E438D2742B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10480" yWindow="5200" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,9 +182,6 @@
     <t>Frazers Versuch, alle Religionen auf eine gemeinsame Wurzel zurückzuführen, als andauernd prägend wahrzunehmen.</t>
   </si>
   <si>
-    <t>Phänomenologische Ansätze am Beispiel von Eliades Konzeption des „Heiligen und des Profanen“ erkennen und anwenden.</t>
-  </si>
-  <si>
     <t>Strukturfunktionalismus am Beispiel von israelitischen Reinheitsgeboten als religionswissenschaftlicher Ansatz anwenden.</t>
   </si>
   <si>
@@ -276,6 +273,9 @@
   </si>
   <si>
     <t>ottoKap141926</t>
+  </si>
+  <si>
+    <t>Phänomenologische Ansätze am Beispiel von Eliades und Ottos Konzeptionen des „Heiligen“ erkennen und anwenden.</t>
   </si>
 </sst>
 </file>
@@ -744,8 +744,8 @@
   </sheetPr>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -828,10 +828,10 @@
         <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H15" si="1">B2 &amp; ". " &amp; IF(ISBLANK(E2),"",E2 &amp; ": ") &amp; F2</f>
@@ -885,7 +885,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="1"/>
@@ -906,7 +906,7 @@
         <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="4"/>
@@ -940,7 +940,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
@@ -995,7 +995,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
@@ -1016,7 +1016,7 @@
         <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="4"/>
@@ -1044,13 +1044,13 @@
         <v>2024-11-21-5.md</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
@@ -1071,7 +1071,7 @@
         <v>39</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="4"/>
@@ -1099,13 +1099,13 @@
         <v>2024-11-28-6.md</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
@@ -1123,7 +1123,7 @@
         <v>6-Rudolf-Otto</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="4"/>
@@ -1151,13 +1151,13 @@
         <v>2024-12-05-7.md</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
@@ -1178,7 +1178,7 @@
         <v>40</v>
       </c>
       <c r="M8" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="4"/>
@@ -1206,13 +1206,13 @@
         <v>2024-12-12-8.md</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
@@ -1233,7 +1233,7 @@
         <v>43</v>
       </c>
       <c r="M9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="4"/>
@@ -1261,13 +1261,13 @@
         <v>2024-12-19-9.md</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
@@ -1311,13 +1311,13 @@
         <v>2025-01-16-10.md</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
@@ -1369,7 +1369,7 @@
         <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
@@ -1387,7 +1387,7 @@
         <v>11-Max-Weber</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="4"/>
@@ -1421,7 +1421,7 @@
         <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
@@ -1470,10 +1470,10 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
@@ -1484,7 +1484,7 @@
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="3"/>
@@ -1516,13 +1516,13 @@
         <v>2025-02-13-14.md</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
@@ -1533,7 +1533,7 @@
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="3"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24geschichte/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1663687A-C4C3-3345-B542-E438D2742B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394B2DDE-0430-FE46-9669-D7A48361B8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="5200" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30240" yWindow="2720" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -182,9 +182,6 @@
     <t>Frazers Versuch, alle Religionen auf eine gemeinsame Wurzel zurückzuführen, als andauernd prägend wahrzunehmen.</t>
   </si>
   <si>
-    <t>Strukturfunktionalismus am Beispiel von israelitischen Reinheitsgeboten als religionswissenschaftlicher Ansatz anwenden.</t>
-  </si>
-  <si>
     <t>wenzelHandoutMaxWeber2024</t>
   </si>
   <si>
@@ -276,6 +273,9 @@
   </si>
   <si>
     <t>Phänomenologische Ansätze am Beispiel von Eliades und Ottos Konzeptionen des „Heiligen“ erkennen und anwenden.</t>
+  </si>
+  <si>
+    <t>Reinheit als Symbolsystem im strukturfunktionalistischen Ansatz von Mary Douglas erklären.</t>
   </si>
 </sst>
 </file>
@@ -744,8 +744,8 @@
   </sheetPr>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -828,10 +828,10 @@
         <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H15" si="1">B2 &amp; ". " &amp; IF(ISBLANK(E2),"",E2 &amp; ": ") &amp; F2</f>
@@ -885,7 +885,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="1"/>
@@ -906,7 +906,7 @@
         <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="4"/>
@@ -940,7 +940,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
@@ -995,7 +995,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
@@ -1016,7 +1016,7 @@
         <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="4"/>
@@ -1044,13 +1044,13 @@
         <v>2024-11-21-5.md</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
@@ -1071,7 +1071,7 @@
         <v>39</v>
       </c>
       <c r="M6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="4"/>
@@ -1099,13 +1099,13 @@
         <v>2024-11-28-6.md</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
@@ -1123,7 +1123,7 @@
         <v>6-Rudolf-Otto</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="4"/>
@@ -1151,13 +1151,13 @@
         <v>2024-12-05-7.md</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
@@ -1178,7 +1178,7 @@
         <v>40</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="4"/>
@@ -1206,13 +1206,13 @@
         <v>2024-12-12-8.md</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
@@ -1233,7 +1233,7 @@
         <v>43</v>
       </c>
       <c r="M9" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="4"/>
@@ -1261,13 +1261,13 @@
         <v>2024-12-19-9.md</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
@@ -1311,13 +1311,13 @@
         <v>2025-01-16-10.md</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
@@ -1369,7 +1369,7 @@
         <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
@@ -1387,7 +1387,7 @@
         <v>11-Max-Weber</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="4"/>
@@ -1421,7 +1421,7 @@
         <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
@@ -1470,10 +1470,10 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
@@ -1484,7 +1484,7 @@
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="3"/>
@@ -1516,13 +1516,13 @@
         <v>2025-02-13-14.md</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
@@ -1533,7 +1533,7 @@
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="3"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24geschichte/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394B2DDE-0430-FE46-9669-D7A48361B8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EEBDD7-0E13-A04C-ACE1-E0D8365C745D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30240" yWindow="2720" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
   <si>
     <t>blank</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>Reinheit als Symbolsystem im strukturfunktionalistischen Ansatz von Mary Douglas erklären.</t>
+  </si>
+  <si>
+    <t>turnerBetwixtLiminalPeriod1987</t>
+  </si>
+  <si>
+    <t>Schildern wie Victor und Edith Turner durch ethnografische Feldforschung zum Konzept der Liminalität gelangten.</t>
   </si>
 </sst>
 </file>
@@ -406,14 +412,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -744,8 +750,8 @@
   </sheetPr>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -902,7 +908,7 @@
         <f t="shared" si="3"/>
         <v>2-Edward-Tylor</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>41</v>
       </c>
       <c r="M3" t="s">
@@ -933,13 +939,13 @@
         <f t="shared" si="0"/>
         <v>2024-11-07-3.md</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>63</v>
       </c>
       <c r="H4" t="str">
@@ -957,10 +963,10 @@
         <f t="shared" si="3"/>
         <v>3-James-Frazer</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="12" t="s">
         <v>48</v>
       </c>
       <c r="N4" t="str">
@@ -988,7 +994,7 @@
         <f t="shared" si="0"/>
         <v>2024-11-14-4.md</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
@@ -1012,7 +1018,7 @@
         <f t="shared" si="3"/>
         <v>4-Aby-Warburg</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="12" t="s">
         <v>42</v>
       </c>
       <c r="M5" t="s">
@@ -1067,7 +1073,7 @@
         <f t="shared" si="3"/>
         <v>5-Parlament-der-Weltreligionen</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="M6" t="s">
@@ -1122,7 +1128,7 @@
         <f t="shared" si="3"/>
         <v>6-Rudolf-Otto</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="12" t="s">
         <v>78</v>
       </c>
       <c r="N7" t="str">
@@ -1174,7 +1180,7 @@
         <f t="shared" si="3"/>
         <v>7-Mircea-Eliade</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="11" t="s">
         <v>40</v>
       </c>
       <c r="M8" t="s">
@@ -1229,7 +1235,7 @@
         <f t="shared" si="3"/>
         <v>8-Mary-Douglas</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="11" t="s">
         <v>43</v>
       </c>
       <c r="M9" t="s">
@@ -1284,7 +1290,12 @@
         <f t="shared" si="3"/>
         <v>9-Victor-und-Edith-Turner</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" t="s">
+        <v>82</v>
+      </c>
       <c r="N10" t="str">
         <f t="shared" si="4"/>
         <v>[9]</v>
@@ -1334,7 +1345,7 @@
         <f t="shared" si="3"/>
         <v>10-Clifford-Geertz</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N11" t="str">
@@ -1386,7 +1397,7 @@
         <f t="shared" si="3"/>
         <v>11-Max-Weber</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="14" t="s">
         <v>49</v>
       </c>
       <c r="N12" t="str">
@@ -1438,7 +1449,7 @@
         <f t="shared" si="3"/>
         <v>12-Pierre-Bourdieu</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="13" t="s">
         <v>45</v>
       </c>
       <c r="N13" t="str">

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24geschichte/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EEBDD7-0E13-A04C-ACE1-E0D8365C745D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFAF230-53BE-AF49-80FE-C12F1C15AFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4880" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
   <si>
     <t>blank</t>
   </si>
@@ -281,7 +281,10 @@
     <t>turnerBetwixtLiminalPeriod1987</t>
   </si>
   <si>
-    <t>Schildern wie Victor und Edith Turner durch ethnografische Feldforschung zum Konzept der Liminalität gelangten.</t>
+    <t>Schildern wie Victor und Edith Turner durch ethnografische Feldforschung zu Ritualen als Symbolsysteme und insbesondere zum Konzept der Liminalität gelangten.</t>
+  </si>
+  <si>
+    <t>"Thick Description" als ein ethnographischer Ansatz erfassen.</t>
   </si>
 </sst>
 </file>
@@ -751,7 +754,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1348,6 +1351,9 @@
       <c r="L11" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="M11" t="s">
+        <v>83</v>
+      </c>
       <c r="N11" t="str">
         <f t="shared" si="4"/>
         <v>[10]</v>
